--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Меню</t>
   </si>
@@ -155,87 +155,6 @@
   </si>
   <si>
     <t>520,08</t>
-  </si>
-  <si>
-    <t>Кальянчики</t>
-  </si>
-  <si>
-    <t>Для раскумарки</t>
-  </si>
-  <si>
-    <t>Жесткие</t>
-  </si>
-  <si>
-    <t>По особым поводам</t>
-  </si>
-  <si>
-    <t>Михуясе</t>
-  </si>
-  <si>
-    <t>Полный раскумар за 2 затяжки</t>
-  </si>
-  <si>
-    <t>12435,32</t>
-  </si>
-  <si>
-    <t>Полухуся</t>
-  </si>
-  <si>
-    <t>Ну тут не знаю</t>
-  </si>
-  <si>
-    <t>625,54</t>
-  </si>
-  <si>
-    <t>Вахте</t>
-  </si>
-  <si>
-    <t>Достаточно одного взгляда</t>
-  </si>
-  <si>
-    <t>56,65</t>
-  </si>
-  <si>
-    <t>Детские</t>
-  </si>
-  <si>
-    <t>Школьникам</t>
-  </si>
-  <si>
-    <t>Одуванчик</t>
-  </si>
-  <si>
-    <t>Для самых миленьких</t>
-  </si>
-  <si>
-    <t>784,87</t>
-  </si>
-  <si>
-    <t>Дымоход</t>
-  </si>
-  <si>
-    <t>Тепленький</t>
-  </si>
-  <si>
-    <t>36,47</t>
-  </si>
-  <si>
-    <t>Паровозик Томас</t>
-  </si>
-  <si>
-    <t>Если вы ощущаете себя настоящим локомотивом</t>
-  </si>
-  <si>
-    <t>84,58</t>
-  </si>
-  <si>
-    <t>Ашкудишка plus mega</t>
-  </si>
-  <si>
-    <t>Для гурманов, только самых крутых</t>
-  </si>
-  <si>
-    <t>1234,21</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1404,28 +1323,16 @@
     <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
+    <row r="1" ht="151.2" customHeight="1"/>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="3">
+        <v>0</v>
+      </c>
       <c r="C2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1433,78 +1340,76 @@
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" t="s" s="3">
+        <v>2</v>
+      </c>
       <c r="D3" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" t="s" s="3">
-        <v>13</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" t="s" s="3">
+        <v>13</v>
+      </c>
       <c r="D7" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -1512,55 +1417,57 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4">
-        <v>100</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>23</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="3">
+        <v>24</v>
+      </c>
       <c r="C11" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1568,16 +1475,14 @@
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" t="s" s="3">
+        <v>26</v>
+      </c>
       <c r="D12" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -1585,59 +1490,59 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s" s="3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" t="s" s="3">
-        <v>37</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s" s="3">
+        <v>36</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" t="s" s="3">
+        <v>37</v>
+      </c>
       <c r="D16" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s" s="3">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -1645,182 +1550,47 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4">
-        <v>76</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s" s="3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="3">
-        <v>47</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="G18" s="4">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s" s="3">
+        <v>47</v>
+      </c>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s" s="3">
-        <v>57</v>
-      </c>
-      <c r="G22" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="F26" t="s" s="3">
-        <v>68</v>
-      </c>
-      <c r="G26" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="G28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
